--- a/resources/Modelo - FASPM.xlsx
+++ b/resources/Modelo - FASPM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="26">
   <si>
     <t>2008 FASPM</t>
   </si>
@@ -76,16 +76,34 @@
   </si>
   <si>
     <t>Subtotal</t>
+  </si>
+  <si>
+    <t>2014 FASPM</t>
+  </si>
+  <si>
+    <t>2015 FASPM</t>
+  </si>
+  <si>
+    <t>2016 FASPM</t>
+  </si>
+  <si>
+    <t>2006 FASPM</t>
+  </si>
+  <si>
+    <t>2007 FASPM</t>
+  </si>
+  <si>
+    <t>2005 FASPM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +212,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -272,6 +295,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -306,6 +330,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -481,23 +506,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.5" thickBot="1">
+    <row r="1" spans="1:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -542,7 +567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5">
         <v>0</v>
@@ -581,17 +606,17 @@
         <v>0</v>
       </c>
       <c r="N2" s="6">
-        <f t="shared" ref="N2" si="0">SUM(B2:M2)</f>
+        <f>SUM(B2:M2)</f>
         <v>0</v>
       </c>
       <c r="O2" s="7">
-        <f>SUM(N2,N4,N6,N8,N10,N12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="28.5" thickBot="1">
+        <f>SUM(N8,N10,N12,N14,N16,N18,N20,N22,N24,N6,N4,N2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -629,9 +654,8 @@
       <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1">
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="5">
         <v>0</v>
@@ -674,9 +698,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.5" thickBot="1">
+    <row r="5" spans="1:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -714,9 +738,9 @@
       <c r="M5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1">
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
         <v>0</v>
@@ -755,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" ref="N6:N10" si="1">SUM(B6:M6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="28.5" thickBot="1">
+        <f>SUM(B6:M6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -799,9 +823,8 @@
       <c r="M7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1">
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
         <v>0</v>
@@ -840,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="28.5" thickBot="1">
+        <f>SUM(B8:M8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -884,9 +907,9 @@
       <c r="M9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1">
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
         <v>0</v>
@@ -925,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="28.5" thickBot="1">
+        <f>SUM(B10:M10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -971,7 +994,7 @@
       </c>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
         <v>0</v>
@@ -1010,7 +1033,517 @@
         <v>0</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" ref="N12" si="2">SUM(B12:M12)</f>
+        <f t="shared" ref="N12:N16" si="0">SUM(B12:M12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" ref="N18" si="1">SUM(B18:M18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" ref="N20" si="2">SUM(B20:M20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" ref="N22" si="3">SUM(B22:M22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" ref="N24" si="4">SUM(B24:M24)</f>
         <v>0</v>
       </c>
     </row>
@@ -1021,26 +1554,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
